--- a/data/trans_orig/P79_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R-Estudios-trans_orig.xlsx
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3402</v>
+        <v>3896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.000821976062358171</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004138739261678197</v>
+        <v>0.004739062536066592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3909</v>
+        <v>4063</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0004824441191758834</v>
+        <v>0.0004824441191758833</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002791285084357653</v>
+        <v>0.002900669757038295</v>
       </c>
     </row>
     <row r="5">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6113</v>
+        <v>5655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002101700076565855</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01056633460159567</v>
+        <v>0.009773937625485124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -821,19 +821,19 @@
         <v>2704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6636</v>
+        <v>6833</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.003289093656064095</v>
+        <v>0.003289093656064096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0008476934887618105</v>
+        <v>0.0008444660112788101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008072582022714114</v>
+        <v>0.008312313424623588</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -842,19 +842,19 @@
         <v>3920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329</v>
+        <v>1336</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9280</v>
+        <v>9719</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002798619458783231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0009490899351925905</v>
+        <v>0.0009538251909078841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006626033580213097</v>
+        <v>0.006939266618928125</v>
       </c>
     </row>
     <row r="6">
@@ -869,19 +869,19 @@
         <v>2907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9001</v>
+        <v>8491</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005024943942937057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001577720608759399</v>
+        <v>0.001591866731191861</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01555823481909524</v>
+        <v>0.01467751273287977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -890,19 +890,19 @@
         <v>5198</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2441</v>
+        <v>2386</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10274</v>
+        <v>9807</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006323001389529391</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002969610707321541</v>
+        <v>0.002902892472344155</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01249870514754948</v>
+        <v>0.01192955362952618</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -911,19 +911,19 @@
         <v>8105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4226</v>
+        <v>4002</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14473</v>
+        <v>13631</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005786815498739196</v>
+        <v>0.005786815498739195</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003017292247339152</v>
+        <v>0.002857430225104297</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01033382538780079</v>
+        <v>0.009732731253689463</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>38745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28593</v>
+        <v>28103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52554</v>
+        <v>52386</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0669721005556408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04942439210223858</v>
+        <v>0.04857620021900162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09084023017874844</v>
+        <v>0.09054949292125286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -959,19 +959,19 @@
         <v>48939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38512</v>
+        <v>38157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60955</v>
+        <v>60101</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05953334660068355</v>
+        <v>0.05953334660068357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04684899425225812</v>
+        <v>0.04641709524171588</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07415165029766628</v>
+        <v>0.07311176462782218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -980,19 +980,19 @@
         <v>87684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71036</v>
+        <v>72553</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105040</v>
+        <v>103186</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06260605723161798</v>
+        <v>0.06260605723161797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05071940518347445</v>
+        <v>0.05180237924744487</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07499828850251454</v>
+        <v>0.07367417826481815</v>
       </c>
     </row>
     <row r="8">
@@ -1007,19 +1007,19 @@
         <v>69527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56124</v>
+        <v>55150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88232</v>
+        <v>87315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.120178521971901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09701093444288693</v>
+        <v>0.09532763932293865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1525117381207966</v>
+        <v>0.1509255571281999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -1028,19 +1028,19 @@
         <v>111956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95969</v>
+        <v>97009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128013</v>
+        <v>128915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1361936901110876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1167449441796982</v>
+        <v>0.1180105232835051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1557259567284267</v>
+        <v>0.15682348476885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>249</v>
@@ -1049,19 +1049,19 @@
         <v>181483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158975</v>
+        <v>160499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>206546</v>
+        <v>205872</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1295783379035197</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1135073650425036</v>
+        <v>0.1145954579829235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1474733652368186</v>
+        <v>0.1469916251360269</v>
       </c>
     </row>
     <row r="9">
@@ -1076,19 +1076,19 @@
         <v>466134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>445185</v>
+        <v>447198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>482999</v>
+        <v>484289</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8057227334529553</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7695123904644943</v>
+        <v>0.7729907898364742</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8348748395790548</v>
+        <v>0.8371038554698862</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1166</v>
@@ -1097,19 +1097,19 @@
         <v>652566</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>634979</v>
+        <v>634599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>670549</v>
+        <v>670383</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7938388921802771</v>
+        <v>0.7938388921802774</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7724449135237504</v>
+        <v>0.7719821582840682</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8157155162505106</v>
+        <v>0.8155128707271627</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1734</v>
@@ -1118,19 +1118,19 @@
         <v>1118700</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1088049</v>
+        <v>1089844</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1143556</v>
+        <v>1142557</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.7987477257881641</v>
+        <v>0.7987477257881639</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.776863518677442</v>
+        <v>0.7781451971157407</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8164949549285681</v>
+        <v>0.8157820104035317</v>
       </c>
     </row>
     <row r="10">
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3571</v>
+        <v>4521</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.0003248641951204151</v>
+        <v>0.000324864195120415</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.001644362701581502</v>
+        <v>0.002081947593609764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4096</v>
+        <v>3563</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0001602485710605492</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0009305592049519483</v>
+        <v>0.0008094619084303997</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7028</v>
+        <v>7845</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0009272808296756886</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003150874430320001</v>
+        <v>0.003516878068121186</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8831</v>
+        <v>8283</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0006795481943885212</v>
+        <v>0.000679548194388521</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.004066792144216951</v>
+        <v>0.003814670427355269</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1323,19 +1323,19 @@
         <v>3544</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10778</v>
+        <v>9757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0008050796101934432</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0001997672168482956</v>
+        <v>0.0001992851067246785</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.002448501915185653</v>
+        <v>0.002216462319805371</v>
       </c>
     </row>
     <row r="13">
@@ -1350,19 +1350,19 @@
         <v>16209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8033</v>
+        <v>8689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27892</v>
+        <v>28996</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007266800802625481</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003601356321711103</v>
+        <v>0.003895350253459674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0125044969061921</v>
+        <v>0.01299949410608164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1371,19 +1371,19 @@
         <v>9163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4355</v>
+        <v>4208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20645</v>
+        <v>20013</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.004220011175698444</v>
+        <v>0.004220011175698442</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002005823403238011</v>
+        <v>0.00193796920566458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009507774591876397</v>
+        <v>0.009216709844418455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1392,19 +1392,19 @@
         <v>25372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16157</v>
+        <v>16012</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41697</v>
+        <v>41132</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005763884533702129</v>
+        <v>0.00576388453370213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003670376977892611</v>
+        <v>0.003637374040146503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009472460331042848</v>
+        <v>0.009344026471585339</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>76165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58721</v>
+        <v>58892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96716</v>
+        <v>96676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03414600370678114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02632569404556264</v>
+        <v>0.02640236523004276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04335941190112539</v>
+        <v>0.04334136227669988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1440,19 +1440,19 @@
         <v>73763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59331</v>
+        <v>57850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94925</v>
+        <v>93144</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03397059839834867</v>
+        <v>0.03397059839834866</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02732386388728813</v>
+        <v>0.02664187611711878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04371636993274559</v>
+        <v>0.04289600267843535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1461,19 +1461,19 @@
         <v>149928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126395</v>
+        <v>127222</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179042</v>
+        <v>177687</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03405948001332726</v>
+        <v>0.03405948001332727</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02871334856458519</v>
+        <v>0.02890112209517407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04067332882646994</v>
+        <v>0.0403655163828455</v>
       </c>
     </row>
     <row r="15">
@@ -1488,19 +1488,19 @@
         <v>232991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>202617</v>
+        <v>202792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>266748</v>
+        <v>267794</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1044538057256349</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09083653394315254</v>
+        <v>0.09091516141430299</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1195875683159997</v>
+        <v>0.120056471537363</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>259</v>
@@ -1509,19 +1509,19 @@
         <v>217861</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>191093</v>
+        <v>192646</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>245135</v>
+        <v>247151</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1003325743297863</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08800479797077107</v>
+        <v>0.08871995346855673</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1128931187699348</v>
+        <v>0.1138216269859241</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>459</v>
@@ -1530,19 +1530,19 @@
         <v>450853</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>408843</v>
+        <v>409200</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>494933</v>
+        <v>491415</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1024208902732262</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09287758285524049</v>
+        <v>0.09295865973147309</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1124346215635404</v>
+        <v>0.1116354350007653</v>
       </c>
     </row>
     <row r="16">
@@ -1557,19 +1557,19 @@
         <v>1903133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1864256</v>
+        <v>1864580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1940122</v>
+        <v>1939083</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8532061089352829</v>
+        <v>0.8532061089352828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8357771876818841</v>
+        <v>0.8359223212659356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8697893224130629</v>
+        <v>0.8693232001367606</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2571</v>
@@ -1578,19 +1578,19 @@
         <v>1868423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1837692</v>
+        <v>1833063</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1899541</v>
+        <v>1898883</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8604724037066577</v>
+        <v>0.8604724037066575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8463197216025534</v>
+        <v>0.8441878632719241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8748033332154153</v>
+        <v>0.8745002042024687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4281</v>
@@ -1599,19 +1599,19 @@
         <v>3771556</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3724187</v>
+        <v>3724351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3820319</v>
+        <v>3822359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8567904169984903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8460294554808164</v>
+        <v>0.8460666173268303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8678678128384529</v>
+        <v>0.8683312935580922</v>
       </c>
     </row>
     <row r="17">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6748</v>
+        <v>5774</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001587450952653049</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009483157624725194</v>
+        <v>0.008114923715232593</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3810</v>
+        <v>3870</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001037041440290145</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005185134246902022</v>
+        <v>0.005266367801928357</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6940</v>
+        <v>6998</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.001307814986199175</v>
+        <v>0.001307814986199174</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004798088439273898</v>
+        <v>0.004838138047136417</v>
       </c>
     </row>
     <row r="20">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3788</v>
+        <v>3777</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009556685868684286</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.005154266568802685</v>
+        <v>0.005139487842469192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4413</v>
+        <v>3513</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.000485528143856572</v>
+        <v>0.0004855281438565719</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003051075545035743</v>
+        <v>0.00242850575459471</v>
       </c>
     </row>
     <row r="21">
@@ -1876,19 +1876,19 @@
         <v>8243</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3551</v>
+        <v>3451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16294</v>
+        <v>15366</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01158351062223216</v>
+        <v>0.01158351062223215</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004990188187014086</v>
+        <v>0.004849801901466822</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0228979482914084</v>
+        <v>0.02159463099472324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1897,19 +1897,19 @@
         <v>7106</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3451</v>
+        <v>3698</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13917</v>
+        <v>13417</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009669370768610575</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004696014711615679</v>
+        <v>0.005032142589023792</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01893738080749566</v>
+        <v>0.01825788589336137</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1918,19 +1918,19 @@
         <v>15348</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8719</v>
+        <v>9159</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>24733</v>
+        <v>24888</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01061103043089703</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006027586908714582</v>
+        <v>0.006331768726221718</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01709863008174257</v>
+        <v>0.01720583848727207</v>
       </c>
     </row>
     <row r="22">
@@ -1945,19 +1945,19 @@
         <v>31987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20821</v>
+        <v>21907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46437</v>
+        <v>48191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04495167258556464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02926021207124917</v>
+        <v>0.03078547467941435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06525837178299981</v>
+        <v>0.06772375791064252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -1966,19 +1966,19 @@
         <v>37824</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28174</v>
+        <v>27765</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51597</v>
+        <v>49625</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05147044976912235</v>
+        <v>0.05147044976912236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03833892660568209</v>
+        <v>0.0377814710817954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07021232905505098</v>
+        <v>0.06752784255464116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -1987,19 +1987,19 @@
         <v>69811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54486</v>
+        <v>55414</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89158</v>
+        <v>89253</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04826354223330384</v>
+        <v>0.04826354223330383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03766818240350459</v>
+        <v>0.03830967740933735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06163850246160275</v>
+        <v>0.06170458576858216</v>
       </c>
     </row>
     <row r="23">
@@ -2014,19 +2014,19 @@
         <v>670228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>654185</v>
+        <v>653610</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>682753</v>
+        <v>682522</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9418773658395503</v>
+        <v>0.9418773658395501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9193321118860347</v>
+        <v>0.918523886165968</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9594787490976211</v>
+        <v>0.9591547904899319</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>949</v>
@@ -2035,19 +2035,19 @@
         <v>688482</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674736</v>
+        <v>676425</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>699668</v>
+        <v>699544</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9368674694351083</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9181621380938285</v>
+        <v>0.9204604615072629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9520882310707131</v>
+        <v>0.9519202224906397</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1594</v>
@@ -2056,19 +2056,19 @@
         <v>1358710</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1338674</v>
+        <v>1336850</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1375480</v>
+        <v>1375495</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9393320842057433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9254804989847831</v>
+        <v>0.9242192391508723</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9509260530907627</v>
+        <v>0.9509365594937261</v>
       </c>
     </row>
     <row r="24">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4834</v>
+        <v>4850</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0003704370105652062</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001296594866753445</v>
+        <v>0.001300741804940167</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4860</v>
+        <v>4851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0001905235057708499</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0006704741413356669</v>
+        <v>0.0006692249280192045</v>
       </c>
     </row>
     <row r="26">
@@ -2219,19 +2219,19 @@
         <v>4414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1172</v>
+        <v>1193</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10778</v>
+        <v>10676</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.00125369608853904</v>
+        <v>0.001253696088539041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0003329713135105411</v>
+        <v>0.0003389361412282939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003061415409669394</v>
+        <v>0.00303237611568435</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2240,19 +2240,19 @@
         <v>4941</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2024</v>
+        <v>2056</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10898</v>
+        <v>11515</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.001325379848638158</v>
+        <v>0.001325379848638159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0005428835704144562</v>
+        <v>0.000551458341071892</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.002923026869480005</v>
+        <v>0.003088474846916657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2261,19 +2261,19 @@
         <v>9355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4408</v>
+        <v>4711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17249</v>
+        <v>17663</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001290564546310261</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0006081188541014213</v>
+        <v>0.0006499458817192668</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.002379475440241131</v>
+        <v>0.002436682098485428</v>
       </c>
     </row>
     <row r="27">
@@ -2288,19 +2288,19 @@
         <v>19116</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9743</v>
+        <v>10590</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32899</v>
+        <v>32923</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.005429673801411828</v>
+        <v>0.005429673801411829</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002767493260201251</v>
+        <v>0.003007902395565379</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.009344590438165875</v>
+        <v>0.009351399403861026</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -2309,19 +2309,19 @@
         <v>15063</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8865</v>
+        <v>9163</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27439</v>
+        <v>26294</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.004040263745862394</v>
+        <v>0.004040263745862395</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.00237784032153043</v>
+        <v>0.002457697231776293</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.007359730433381061</v>
+        <v>0.007052554790355462</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>33</v>
@@ -2330,19 +2330,19 @@
         <v>34180</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22484</v>
+        <v>23262</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>49540</v>
+        <v>51521</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.004715071137027263</v>
+        <v>0.004715071137027265</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003101637733056138</v>
+        <v>0.003208946618155047</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.006834065930870311</v>
+        <v>0.007107277136433916</v>
       </c>
     </row>
     <row r="28">
@@ -2357,19 +2357,19 @@
         <v>123153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>102772</v>
+        <v>102656</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>150420</v>
+        <v>148000</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03497984336389467</v>
+        <v>0.03497984336389468</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0291909109215846</v>
+        <v>0.02915788517526362</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04272458725857643</v>
+        <v>0.0420373481574005</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>164</v>
@@ -2378,19 +2378,19 @@
         <v>129808</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>111283</v>
+        <v>111263</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>153637</v>
+        <v>154925</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.03481686090847118</v>
+        <v>0.03481686090847119</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02984814782657577</v>
+        <v>0.02984281177955746</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04120819273011345</v>
+        <v>0.04155369861572877</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>282</v>
@@ -2399,19 +2399,19 @@
         <v>252961</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>221031</v>
+        <v>224503</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>283926</v>
+        <v>289630</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03489601807673169</v>
+        <v>0.03489601807673171</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03049133055351043</v>
+        <v>0.030970292602478</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03916761208242116</v>
+        <v>0.03995456501544596</v>
       </c>
     </row>
     <row r="29">
@@ -2426,19 +2426,19 @@
         <v>334505</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>294763</v>
+        <v>296275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>372478</v>
+        <v>373440</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09501139414753923</v>
+        <v>0.09501139414753924</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08372327587715059</v>
+        <v>0.08415283973093778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1057971183830052</v>
+        <v>0.1060701987080126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>476</v>
@@ -2447,19 +2447,19 @@
         <v>367642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>334727</v>
+        <v>335925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>401278</v>
+        <v>403222</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09860834127987748</v>
+        <v>0.0986083412798775</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08977984886481391</v>
+        <v>0.090101118123515</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1076299762343078</v>
+        <v>0.1081514635213073</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>780</v>
@@ -2468,19 +2468,19 @@
         <v>702147</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>649677</v>
+        <v>652944</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>756749</v>
+        <v>757306</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09686137932229233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08962308684501261</v>
+        <v>0.09007378019235021</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1043937825453461</v>
+        <v>0.1044705610565548</v>
       </c>
     </row>
     <row r="30">
@@ -2495,19 +2495,19 @@
         <v>3039495</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2994335</v>
+        <v>2992691</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3084478</v>
+        <v>3082191</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8633253925986152</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8504983914443934</v>
+        <v>0.8500314397629839</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.876102302664129</v>
+        <v>0.8754525921053202</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4686</v>
@@ -2516,19 +2516,19 @@
         <v>3209471</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3170848</v>
+        <v>3170834</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3248468</v>
+        <v>3247919</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8608387172065856</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8504793789133307</v>
+        <v>0.8504756150832561</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8712983766510087</v>
+        <v>0.8711512617302554</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7609</v>
@@ -2537,19 +2537,19 @@
         <v>6248966</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6185002</v>
+        <v>6187224</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6311318</v>
+        <v>6311236</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8620464434118675</v>
+        <v>0.8620464434118676</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8532225816509618</v>
+        <v>0.8535291450209564</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.870647894151248</v>
+        <v>0.8706366193579078</v>
       </c>
     </row>
     <row r="31">
